--- a/biology/Zoologie/Coucou_de_la_Sonde/Coucou_de_la_Sonde.xlsx
+++ b/biology/Zoologie/Coucou_de_la_Sonde/Coucou_de_la_Sonde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cuculus lepidus
 Le Coucou de la Sonde (Cuculus lepidus) est une espèce de Coucous, oiseaux de la famille des Cuculidae. Son aire de répartition s'étend sur la Malaisie, l'Indonésie et le Timor oriental.
